--- a/biology/Botanique/Puya_(genre)/Puya_(genre).xlsx
+++ b/biology/Botanique/Puya_(genre)/Puya_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puya est un genre de plantes à fleur monocotylédones de la famille des Bromeliaceae. C'est un genre qu'on retrouve notamment en Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2011) :
 Puya adscendens L.B.Sm. (1968)
 Puya aequatorialis André (1888)
 Puya alata L.B.Sm. (1961)
@@ -768,9 +782,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 mai 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 mai 2011) :
 Puya aequatorialis
 Puya alpestris
 Puya angusta
@@ -815,8 +831,43 @@
 Puya werdermannii
 Puya wrightii
 Puya yakespala
-Espèces éteintes
-† Puya gaudini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Puya_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puya_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">† Puya gaudini
 			† Puya gaudini
 </t>
         </is>
